--- a/data/trans_camb/P36B14_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P36B14_R-Provincia-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,29; 5,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,65; 7,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,7; 5,56</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,24%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,66; 7,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 9,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,29; 6,65</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,46</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,73; 2,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,72; -2,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,04; -1,82</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,35%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,4; 2,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,99; -3,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,28; -2,14</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,95</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,99</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,66; -9,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,28; -6,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,18; -9,37</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,35%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,21; -10,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,4; -6,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,58; -9,76</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,55</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,98; 11,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,64; 7,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 8,14</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,36%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; 14,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,11; 9,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 10,37</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,97</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,23; 3,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 7,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,83; 3,84</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,58%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,15%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,68; 4,32</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 9,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,81; 4,75</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,65; 4,46</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 5,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 3,49</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,23%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,23%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,44; 5,33</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,9; 6,69</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,01; 4,0</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,19</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,33; -0,02</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,19; 9,08</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,42; 3,55</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,07%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,23%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,92; -0,03</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,71; 10,96</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,23; 4,33</t>
         </is>
       </c>
     </row>
@@ -1228,17 +1228,17 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-40,0</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-38,53</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-39,31</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,86; -28,98</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,59; -34,54</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,66; -32,4</t>
         </is>
       </c>
     </row>
@@ -1274,17 +1274,17 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,72%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,24%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,96%</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,21; -35,56</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,59; -40,85</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,54; -38,85</t>
         </is>
       </c>
     </row>
@@ -1324,17 +1324,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,0</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,66</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,19</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,2; -10,43</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,7; -7,31</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,76; -9,29</t>
         </is>
       </c>
     </row>
@@ -1370,17 +1370,17 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,4%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,14%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,07%</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,95; -12,5</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,39; -8,31</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,78; -10,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P36B14_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P36B14_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 5,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 7,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 5,56</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 7,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 9,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 6,65</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 2,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,72; -2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,04; -1,82</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,35%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 2,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,99; -3,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,28; -2,14</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-14,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-11,99</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,66; -9,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,28; -6,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,18; -9,37</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-15,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-12,35%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,21; -10,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,4; -6,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,58; -9,76</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 11,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 7,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 8,14</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 14,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 9,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 10,37</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 3,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 7,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 3,84</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-5,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,15%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 4,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 9,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 4,75</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 4,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 5,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 3,49</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 5,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 6,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 4,0</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-5,19</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,33; -0,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 9,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 3,55</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-6,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,92; -0,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 10,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 4,33</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1228,17 +1228,17 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-40,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-38,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-39,31</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-45,86; -28,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-42,59; -34,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-42,66; -32,4</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1274,17 +1274,17 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-48,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-45,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-46,96%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-55,21; -35,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-49,59; -40,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-50,54; -38,85</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1324,17 +1324,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-13,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-9,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-11,19</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-15,2; -10,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-11,7; -7,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-12,76; -9,29</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1370,17 +1370,17 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-15,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-11,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-13,07%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-17,95; -12,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-13,39; -8,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-14,78; -10,87</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P36B14_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P36B14_R-Provincia-trans_camb.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -738,7 +738,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1026,7 +1026,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1122,7 +1122,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
